--- a/Data Sources/gui_test_data.xlsx
+++ b/Data Sources/gui_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\Workspace\software_testing_katalon\Data Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591F121A-CBAD-470D-8490-24185A9C810E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D9E6C-CD5D-42FC-B2B3-C35B8B508127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tranTransfer_inputDate" sheetId="18" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="52">
   <si>
     <t>test_value</t>
   </si>
@@ -107,21 +107,12 @@
 This is test paragraph.</t>
   </si>
   <si>
-    <t>Brazilian real (R$)</t>
-  </si>
-  <si>
     <t>Euro (€)</t>
   </si>
   <si>
-    <t>British Pound (£)</t>
-  </si>
-  <si>
     <t>Hungarian forint (Ft)</t>
   </si>
   <si>
-    <t>US Dollar ($)</t>
-  </si>
-  <si>
     <t>Default asset account</t>
   </si>
   <si>
@@ -204,6 +195,9 @@
   </si>
   <si>
     <t>AM</t>
+  </si>
+  <si>
+    <t>Ukrainian hryvnia (₴)</t>
   </si>
 </sst>
 </file>
@@ -549,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D021059-8DF5-477F-A5A6-F05D1214EBF1}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -571,16 +565,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,10 +594,10 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,39 +611,39 @@
         <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -720,7 +714,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -728,39 +722,39 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +774,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -788,39 +782,39 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +827,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="A1:XFD1048576"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -872,12 +866,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +884,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -929,12 +923,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -968,16 +962,16 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,10 +991,10 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1014,39 +1008,39 @@
         <v>2024</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1210,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1255,12 +1249,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1267,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1312,12 +1306,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1331,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1345,39 +1339,39 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ACD65D-2B2D-454B-831E-0A3BA4D69865}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1397,7 +1391,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -1405,39 +1399,39 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1506,13 +1500,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:XFD1048576"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,18 +1548,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B347DFE-FDCE-4D59-9482-4697CE2FB486}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1581,7 +1576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -1589,28 +1584,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1642,42 +1621,42 @@
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
